--- a/sample_data/large_dataset.xlsx
+++ b/sample_data/large_dataset.xlsx
@@ -561,11 +561,6 @@
           <t>736938</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>buddhism</t>
@@ -858,9 +853,6 @@
         <is>
           <t>islam</t>
         </is>
-      </c>
-      <c r="D6">
-        <v>40</v>
       </c>
       <c r="E6">
         <v>92.90000000000001</v>
